--- a/Test Data/TC_66_Verify_Slot_Cards_Gallery.xlsx
+++ b/Test Data/TC_66_Verify_Slot_Cards_Gallery.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_test\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Device Type</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>PNI800</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>No of Devices in 1st Iteration</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -631,13 +631,13 @@
         <v>12</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,24 +708,24 @@
         <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
